--- a/Scrum Sheet - REU.xlsx
+++ b/Scrum Sheet - REU.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -63,19 +63,28 @@
   </si>
   <si>
     <t>Set up website</t>
+  </si>
+  <si>
+    <t>SCRUM SHEET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -92,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -100,40 +109,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,409 +551,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="B1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="7.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="2:7" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C3" s="9">
         <v>42911</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G5" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C8" s="9">
         <v>42912</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
         <v>3</v>
       </c>
-      <c r="B12" s="10">
+      <c r="C13" s="19">
         <v>42913</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="6" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="6" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
         <v>4</v>
       </c>
-      <c r="B17" s="10">
+      <c r="C18" s="19">
         <v>42914</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="6" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="6" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="6" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="18">
         <v>5</v>
       </c>
-      <c r="B22" s="10">
+      <c r="C23" s="19">
         <v>42915</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="6" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="6" t="s">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="6" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="18">
         <v>6</v>
       </c>
-      <c r="B27" s="10">
+      <c r="C28" s="19">
         <v>42916</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="6" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="6" t="s">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="6" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="18">
         <v>7</v>
       </c>
-      <c r="B32" s="10">
+      <c r="C33" s="19">
         <v>42917</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="6" t="s">
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="6" t="s">
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="6" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="18">
         <v>8</v>
       </c>
-      <c r="B37" s="10">
+      <c r="C38" s="19">
         <v>42888</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="6" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="6" t="s">
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="6" t="s">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
+  <mergeCells count="17">
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>